--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2230.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2230.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.281370889095701</v>
+        <v>1.004866600036621</v>
       </c>
       <c r="B1">
-        <v>2.864372888940721</v>
+        <v>2.1470627784729</v>
       </c>
       <c r="C1">
-        <v>8.889038292879009</v>
+        <v>7.28476095199585</v>
       </c>
       <c r="D1">
-        <v>2.020705687441152</v>
+        <v>2.388560056686401</v>
       </c>
       <c r="E1">
-        <v>1.105198037078812</v>
+        <v>1.344383955001831</v>
       </c>
     </row>
   </sheetData>
